--- a/municipal/ENG/TransportAndStorage/Length of transport ways/Racha-Lechkhumi and Kvemo Svaneti/Oni Municipality.xlsx
+++ b/municipal/ENG/TransportAndStorage/Length of transport ways/Racha-Lechkhumi and Kvemo Svaneti/Oni Municipality.xlsx
@@ -2,28 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\gzebi\Length of transport ways\Racha-Lechkhumi and Kvemo Svaneti\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="0" windowWidth="13530" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Oni Municipality" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -32,13 +21,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
+    <t>(by the end of year, km)</t>
+  </si>
+  <si>
     <t>International</t>
   </si>
   <si>
     <t xml:space="preserve">Secondary </t>
-  </si>
-  <si>
-    <t>Length of transport ways in Oni Municipality</t>
   </si>
   <si>
     <r>
@@ -63,7 +52,7 @@
     </r>
   </si>
   <si>
-    <t>(by the end of year, km)</t>
+    <t>Length of transport ways in Oni Municipality</t>
   </si>
 </sst>
 </file>
@@ -73,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +71,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -142,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -179,58 +161,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,105 +468,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="9" customWidth="1"/>
-    <col min="2" max="6" width="18.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="24.5703125" style="2" customWidth="1"/>
+    <col min="2" max="7" width="16.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4">
+    </row>
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1">
         <v>2017</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>2018</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>2019</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>2020</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="G3" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
         <v>101.2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>101.2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <v>101.2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>101.2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="4">
         <v>120.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="G5" s="4">
+        <v>120.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>